--- a/MG_Management/00_GANTT/1_Planning_Formations.xlsx
+++ b/MG_Management/00_GANTT/1_Planning_Formations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\Ressources2020\MG_Management\00_GANTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55199B3C-2117-4BB7-ACE8-3250980BBA32}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECD3923-5041-4342-90A3-6197B37C3DA0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="112">
   <si>
     <t>Nom</t>
   </si>
@@ -353,22 +353,16 @@
     <t>Semaine 40</t>
   </si>
   <si>
-    <t>Semaine 41</t>
-  </si>
-  <si>
     <t>Semaine 42</t>
   </si>
   <si>
     <t>18h30</t>
   </si>
   <si>
-    <t>18h31</t>
-  </si>
-  <si>
-    <t>18h32</t>
-  </si>
-  <si>
-    <t>18h33</t>
+    <t>Gantt</t>
+  </si>
+  <si>
+    <t>Semaine 43</t>
   </si>
 </sst>
 </file>
@@ -532,7 +526,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -559,10 +553,43 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -570,24 +597,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -597,9 +618,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -608,33 +626,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1064,7 +1055,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1075,72 +1066,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
@@ -1149,24 +1140,24 @@
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -1175,10 +1166,10 @@
       <c r="B10" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="26"/>
+      <c r="D10" s="34"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -1187,10 +1178,10 @@
       <c r="B11" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="28"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
@@ -1199,7 +1190,7 @@
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="12" t="s">
         <v>80</v>
       </c>
       <c r="B13" s="8"/>
@@ -1232,22 +1223,23 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{3E10C2E8-122C-4AFD-A596-75DAFD98D350}"/>
     <hyperlink ref="C6" r:id="rId2" xr:uid="{0279590D-CCAE-4CF6-AE5D-541264EB9E5E}"/>
     <hyperlink ref="C3" r:id="rId3" xr:uid="{F8A8C616-78C0-4871-A489-6DFD7CF88680}"/>
     <hyperlink ref="C11" r:id="rId4" xr:uid="{82615521-8F8D-4785-B57D-99FA2574BE4E}"/>
+    <hyperlink ref="C4" r:id="rId5" xr:uid="{779C4627-FDEC-4C5D-A92E-3C6174651478}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1258,7 +1250,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1827,19 +1819,19 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45.5546875" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1855,15 +1847,15 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="13" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="3"/>
@@ -1872,15 +1864,15 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="3"/>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="15" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="13" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="3"/>
@@ -1889,15 +1881,15 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="3"/>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="13" t="s">
         <v>87</v>
       </c>
       <c r="B4" s="3"/>
@@ -1906,15 +1898,15 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="15" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="13" t="s">
         <v>86</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1925,108 +1917,111 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="3"/>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="14" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="I6" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="I6" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="J6" s="32" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="I7" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" s="15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="34" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="35" t="s">
+      <c r="C8" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="I8" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="I7" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="I8" s="31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="35" t="s">
+      <c r="D9" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="35" t="s">
-        <v>113</v>
-      </c>
       <c r="E9" s="3"/>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="15" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="14" t="s">
         <v>102</v>
       </c>
     </row>

--- a/MG_Management/00_GANTT/1_Planning_Formations.xlsx
+++ b/MG_Management/00_GANTT/1_Planning_Formations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\Ressources2020\MG_Management\00_GANTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECD3923-5041-4342-90A3-6197B37C3DA0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89B2263-F8AA-4E22-8511-0BDB828C8132}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7680" yWindow="348" windowWidth="23040" windowHeight="12216" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="112">
   <si>
     <t>Nom</t>
   </si>
@@ -347,9 +347,6 @@
     <t>TBA</t>
   </si>
   <si>
-    <t>Semaine 39</t>
-  </si>
-  <si>
     <t>Semaine 40</t>
   </si>
   <si>
@@ -363,13 +360,16 @@
   </si>
   <si>
     <t>Semaine 43</t>
+  </si>
+  <si>
+    <t>S &amp; L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,6 +418,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -526,7 +532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -626,6 +632,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1819,7 +1831,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1928,21 +1940,21 @@
       <c r="A6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>109</v>
+      <c r="B6" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="36">
+        <v>43732</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>108</v>
       </c>
       <c r="E6" s="3"/>
       <c r="I6" s="14" t="s">
         <v>95</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1953,10 +1965,10 @@
         <v>105</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" s="3"/>
       <c r="I7" s="15" t="s">
@@ -1974,10 +1986,10 @@
         <v>105</v>
       </c>
       <c r="C8" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>108</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>109</v>
       </c>
       <c r="E8" s="3"/>
       <c r="I8" s="14" t="s">
@@ -1995,10 +2007,10 @@
         <v>105</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E9" s="3"/>
       <c r="I9" s="14" t="s">
